--- a/biology/Botanique/Liste_des_plantes_d'eau_douce/Liste_des_plantes_d'eau_douce.xlsx
+++ b/biology/Botanique/Liste_des_plantes_d'eau_douce/Liste_des_plantes_d'eau_douce.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_plantes_d%27eau_douce</t>
+          <t>Liste_des_plantes_d'eau_douce</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Listes de plantes d’eau douce utilisées en aquariophilie[1],[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Listes de plantes d’eau douce utilisées en aquariophilie.
 Acorus gramineus var. pusillus, Acorus
 Alternanthera sp., Althernanthera
 Anubias sp., Anubias
@@ -631,7 +643,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_plantes_d%27eau_douce</t>
+          <t>Liste_des_plantes_d'eau_douce</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -649,7 +661,9 @@
           <t>Astuce</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les plantes aquatiques n’ayant pas besoin d'être rigides pour se tenir dans l’eau, la plupart d’entre elles n’ont aucune tenue quand on les sort de l’eau. Une plante qui continue à se dresser hors de l’eau est hautement suspecte de ne pas être une plante aquatique.
 Il se trouve que les plantes aériennes sont beaucoup plus faciles à cultiver que les plantes aquatiques (pas besoin de bassin).
